--- a/supporting_files/contacts_formatted.xlsx
+++ b/supporting_files/contacts_formatted.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="10390" windowWidth="19390" xWindow="-100" yWindow="-100"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="10392" windowWidth="19392" xWindow="-96" yWindow="-96"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -346,74 +346,6 @@
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -706,7 +638,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -721,22 +653,22 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="15.36328125"/>
-    <col customWidth="1" max="2" min="2" style="3" width="18.54296875"/>
+    <col customWidth="1" max="1" min="1" width="15.3671875"/>
+    <col customWidth="1" max="2" min="2" style="3" width="18.5234375"/>
     <col customWidth="1" max="3" min="3" style="18" width="12"/>
-    <col customWidth="1" max="4" min="4" width="10.90625"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" width="11.54296875"/>
-    <col customWidth="1" max="6" min="6" width="18.1796875"/>
-    <col customWidth="1" max="7" min="7" width="10.6328125"/>
-    <col customWidth="1" max="8" min="8" width="11.453125"/>
+    <col customWidth="1" max="4" min="4" width="10.89453125"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" width="11.5234375"/>
+    <col customWidth="1" max="6" min="6" width="18.15625"/>
+    <col customWidth="1" max="7" min="7" width="10.62890625"/>
+    <col customWidth="1" max="8" min="8" width="11.47265625"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="29.5" r="1" thickBot="1">
+    <row customHeight="1" ht="29.1" r="1" thickBot="1">
       <c r="A1" s="30" t="inlineStr">
         <is>
           <t>Full Name</t>
@@ -774,12 +706,8 @@
       </c>
       <c r="H1" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="2" thickBot="1">
-      <c r="A2" s="18" t="inlineStr">
-        <is>
-          <t>Andrew Lee</t>
-        </is>
-      </c>
+    <row customHeight="1" ht="14.7" r="2" thickBot="1">
+      <c r="A2" s="18" t="n"/>
       <c r="B2" s="31" t="inlineStr">
         <is>
           <t>713-816-8873</t>
@@ -792,12 +720,12 @@
       </c>
       <c r="D2" s="31" t="inlineStr">
         <is>
-          <t>Andrew</t>
+          <t>Alexis</t>
         </is>
       </c>
       <c r="E2" s="31" t="inlineStr">
         <is>
-          <t>Lee</t>
+          <t>Bernazzani</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -811,12 +739,8 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="3" thickBot="1">
-      <c r="A3" s="18" t="inlineStr">
-        <is>
-          <t>Kevin Horn</t>
-        </is>
-      </c>
+    <row customHeight="1" ht="14.7" r="3" thickBot="1">
+      <c r="A3" s="18" t="n"/>
       <c r="B3" s="31" t="inlineStr">
         <is>
           <t>832-506-9962</t>
@@ -829,12 +753,12 @@
       </c>
       <c r="D3" s="31" t="inlineStr">
         <is>
-          <t>Kevin</t>
+          <t>Anna</t>
         </is>
       </c>
       <c r="E3" s="31" t="inlineStr">
         <is>
-          <t>Horn</t>
+          <t>Thomas</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -848,12 +772,8 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="4" thickBot="1">
-      <c r="A4" s="18" t="inlineStr">
-        <is>
-          <t>Malet??</t>
-        </is>
-      </c>
+    <row customHeight="1" ht="14.7" r="4" thickBot="1">
+      <c r="A4" s="18" t="n"/>
       <c r="B4" s="31" t="inlineStr">
         <is>
           <t>808-351-8100</t>
@@ -866,7 +786,7 @@
       </c>
       <c r="D4" s="31" t="inlineStr">
         <is>
-          <t>Malet??</t>
+          <t>Ashley</t>
         </is>
       </c>
       <c r="E4" s="31" t="inlineStr">
@@ -885,12 +805,8 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="5" thickBot="1">
-      <c r="A5" s="18" t="inlineStr">
-        <is>
-          <t>Beth Ann Emery</t>
-        </is>
-      </c>
+    <row customHeight="1" ht="14.7" r="5" thickBot="1">
+      <c r="A5" s="18" t="n"/>
       <c r="B5" s="31" t="inlineStr">
         <is>
           <t>972-251-9414</t>
@@ -903,14 +819,10 @@
       </c>
       <c r="D5" s="31" t="inlineStr">
         <is>
-          <t>Beth Ann</t>
-        </is>
-      </c>
-      <c r="E5" s="31" t="inlineStr">
-        <is>
-          <t>Emery</t>
-        </is>
-      </c>
+          <t>Claire</t>
+        </is>
+      </c>
+      <c r="E5" s="31" t="n"/>
       <c r="F5" s="19" t="inlineStr">
         <is>
           <t>9722519414</t>
@@ -922,12 +834,8 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="6" thickBot="1">
-      <c r="A6" s="18" t="inlineStr">
-        <is>
-          <t>Connor</t>
-        </is>
-      </c>
+    <row customHeight="1" ht="14.7" r="6" thickBot="1">
+      <c r="A6" s="18" t="n"/>
       <c r="B6" s="31" t="inlineStr">
         <is>
           <t>713-444-0286</t>
@@ -940,7 +848,7 @@
       </c>
       <c r="D6" s="31" t="inlineStr">
         <is>
-          <t>Connor</t>
+          <t>Clara</t>
         </is>
       </c>
       <c r="E6" s="31" t="inlineStr">
@@ -959,7 +867,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="7" thickBot="1">
+    <row customHeight="1" ht="14.7" r="7" thickBot="1">
       <c r="A7" s="18" t="n"/>
       <c r="B7" s="31" t="inlineStr">
         <is>
@@ -992,7 +900,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="8" thickBot="1">
+    <row customHeight="1" ht="14.7" r="8" thickBot="1">
       <c r="A8" s="18" t="n"/>
       <c r="B8" s="31" t="inlineStr">
         <is>
@@ -1025,7 +933,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="9" thickBot="1">
+    <row customHeight="1" ht="14.7" r="9" thickBot="1">
       <c r="A9" s="18" t="n"/>
       <c r="B9" s="31" t="inlineStr">
         <is>
@@ -1058,12 +966,8 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="10" thickBot="1">
-      <c r="A10" s="18" t="inlineStr">
-        <is>
-          <t>Hey</t>
-        </is>
-      </c>
+    <row customHeight="1" ht="14.7" r="10" thickBot="1">
+      <c r="A10" s="18" t="n"/>
       <c r="B10" s="31" t="inlineStr">
         <is>
           <t>978-912-3377</t>
@@ -1076,7 +980,7 @@
       </c>
       <c r="D10" s="31" t="inlineStr">
         <is>
-          <t>Hey</t>
+          <t>Jacky</t>
         </is>
       </c>
       <c r="E10" s="31" t="n"/>
@@ -1091,12 +995,8 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="11" thickBot="1">
-      <c r="A11" s="18" t="inlineStr">
-        <is>
-          <t>This</t>
-        </is>
-      </c>
+    <row customHeight="1" ht="14.7" r="11" thickBot="1">
+      <c r="A11" s="18" t="n"/>
       <c r="B11" s="31" t="inlineStr">
         <is>
           <t>817-308-7575</t>
@@ -1109,7 +1009,7 @@
       </c>
       <c r="D11" s="31" t="inlineStr">
         <is>
-          <t>This</t>
+          <t>Juia</t>
         </is>
       </c>
       <c r="E11" s="31" t="inlineStr">
@@ -1128,12 +1028,8 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="12" thickBot="1">
-      <c r="A12" s="18" t="inlineStr">
-        <is>
-          <t>Is</t>
-        </is>
-      </c>
+    <row customHeight="1" ht="14.7" r="12" thickBot="1">
+      <c r="A12" s="18" t="n"/>
       <c r="B12" s="31" t="inlineStr">
         <is>
           <t>832-798-3317</t>
@@ -1146,7 +1042,7 @@
       </c>
       <c r="D12" s="31" t="inlineStr">
         <is>
-          <t>Is</t>
+          <t>Kayla</t>
         </is>
       </c>
       <c r="E12" s="31" t="inlineStr">
@@ -1165,12 +1061,8 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="13" thickBot="1">
-      <c r="A13" s="18" t="inlineStr">
-        <is>
-          <t>Helpful</t>
-        </is>
-      </c>
+    <row customHeight="1" ht="14.7" r="13" thickBot="1">
+      <c r="A13" s="18" t="n"/>
       <c r="B13" s="31" t="inlineStr">
         <is>
           <t>213-245-4384</t>
@@ -1183,7 +1075,7 @@
       </c>
       <c r="D13" s="31" t="inlineStr">
         <is>
-          <t>Helpful</t>
+          <t>Keala</t>
         </is>
       </c>
       <c r="E13" s="31" t="inlineStr">

--- a/supporting_files/contacts_formatted.xlsx
+++ b/supporting_files/contacts_formatted.xlsx
@@ -46,12 +46,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFE599"/>
+        <fgColor rgb="FFEAD1DC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -252,11 +252,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
@@ -335,10 +363,16 @@
     <xf applyAlignment="1" borderId="17" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="17" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
     <xf applyAlignment="1" borderId="17" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="18" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="19" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -392,7 +426,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -444,7 +478,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -650,10 +684,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -668,7 +702,7 @@
     <col customWidth="1" max="8" min="8" width="11.47265625"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="29.1" r="1" thickBot="1">
+    <row customHeight="1" ht="28.8" r="1">
       <c r="A1" s="30" t="inlineStr">
         <is>
           <t>Full Name</t>
@@ -706,393 +740,270 @@
       </c>
       <c r="H1" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="14.7" r="2" thickBot="1">
+    <row r="2">
       <c r="A2" s="18" t="n"/>
-      <c r="B2" s="31" t="inlineStr">
-        <is>
-          <t>713-816-8873</t>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>346-770-9506</t>
         </is>
       </c>
       <c r="C2" s="33" t="inlineStr">
         <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>Elizabeth</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>Denny</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3467709506</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="18" t="n"/>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>469-664-3775</t>
+        </is>
+      </c>
+      <c r="C3" s="33" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D2" s="31" t="inlineStr">
-        <is>
-          <t>Alexis</t>
-        </is>
-      </c>
-      <c r="E2" s="31" t="inlineStr">
-        <is>
-          <t>Bernazzani</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7138168873</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>Grace</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>Lee</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4696643775</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>female</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="14.7" r="3" thickBot="1">
-      <c r="A3" s="18" t="n"/>
-      <c r="B3" s="31" t="inlineStr">
-        <is>
-          <t>832-506-9962</t>
-        </is>
-      </c>
-      <c r="C3" s="33" t="inlineStr">
+    <row r="4">
+      <c r="A4" s="18" t="n"/>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>469-307-0337</t>
+        </is>
+      </c>
+      <c r="C4" s="33" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>Hannah</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>Lee</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4693070337</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="18" t="n"/>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>979-264-0480</t>
+        </is>
+      </c>
+      <c r="C5" s="33" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D3" s="31" t="inlineStr">
-        <is>
-          <t>Anna</t>
-        </is>
-      </c>
-      <c r="E3" s="31" t="inlineStr">
-        <is>
-          <t>Thomas</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>8325069962</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>Isabel</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="F5" s="19" t="inlineStr">
+        <is>
+          <t>9792640480</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t>female</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="14.7" r="4" thickBot="1">
-      <c r="A4" s="18" t="n"/>
-      <c r="B4" s="31" t="inlineStr">
-        <is>
-          <t>808-351-8100</t>
-        </is>
-      </c>
-      <c r="C4" s="33" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="18" t="n"/>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>682-215-2411</t>
+        </is>
+      </c>
+      <c r="C6" s="33" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D4" s="31" t="inlineStr">
-        <is>
-          <t>Ashley</t>
-        </is>
-      </c>
-      <c r="E4" s="31" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>8083518100</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>Jada</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>Palmer</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6822152411</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
         <is>
           <t>female</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="14.7" r="5" thickBot="1">
-      <c r="A5" s="18" t="n"/>
-      <c r="B5" s="31" t="inlineStr">
-        <is>
-          <t>972-251-9414</t>
-        </is>
-      </c>
-      <c r="C5" s="33" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="D5" s="31" t="inlineStr">
-        <is>
-          <t>Claire</t>
-        </is>
-      </c>
-      <c r="E5" s="31" t="n"/>
-      <c r="F5" s="19" t="inlineStr">
-        <is>
-          <t>9722519414</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="18" t="n"/>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>281-761-4370</t>
+        </is>
+      </c>
+      <c r="C7" s="33" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>Julie</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>Webb</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2817614370</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="18" t="inlineStr">
+        <is>
+          <t>Jena Mrochek</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>4445556667</v>
+      </c>
+      <c r="C8" s="35" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>Jena</t>
+        </is>
+      </c>
+      <c r="E8" s="1" t="inlineStr">
+        <is>
+          <t>Mrochek</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
         <is>
           <t>female</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="14.7" r="6" thickBot="1">
-      <c r="A6" s="18" t="n"/>
-      <c r="B6" s="31" t="inlineStr">
-        <is>
-          <t>713-444-0286</t>
-        </is>
-      </c>
-      <c r="C6" s="33" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="D6" s="31" t="inlineStr">
-        <is>
-          <t>Clara</t>
-        </is>
-      </c>
-      <c r="E6" s="31" t="inlineStr">
-        <is>
-          <t>Huelscher</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>7134440286</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="14.7" r="7" thickBot="1">
-      <c r="A7" s="18" t="n"/>
-      <c r="B7" s="31" t="inlineStr">
-        <is>
-          <t>832-748-0563</t>
-        </is>
-      </c>
-      <c r="C7" s="33" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="D7" s="31" t="inlineStr">
-        <is>
-          <t>Daniela</t>
-        </is>
-      </c>
-      <c r="E7" s="31" t="inlineStr">
-        <is>
-          <t>Martinez</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>8327480563</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="14.7" r="8" thickBot="1">
-      <c r="A8" s="18" t="n"/>
-      <c r="B8" s="31" t="inlineStr">
-        <is>
-          <t>210-995-6699</t>
-        </is>
-      </c>
-      <c r="C8" s="33" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="D8" s="31" t="inlineStr">
-        <is>
-          <t>Gabby</t>
-        </is>
-      </c>
-      <c r="E8" s="31" t="inlineStr">
-        <is>
-          <t>Thompson</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2109956699</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="14.7" r="9" thickBot="1">
+    <row r="9">
       <c r="A9" s="18" t="n"/>
-      <c r="B9" s="31" t="inlineStr">
-        <is>
-          <t>972-835-3563</t>
-        </is>
-      </c>
-      <c r="C9" s="33" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="D9" s="32" t="inlineStr">
-        <is>
-          <t>Ilisa</t>
-        </is>
-      </c>
-      <c r="E9" s="32" t="inlineStr">
-        <is>
-          <t>Norman</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>9728353563</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="14.7" r="10" thickBot="1">
+      <c r="B9" s="1" t="n"/>
+      <c r="C9" s="35" t="n"/>
+      <c r="D9" s="1" t="n"/>
+      <c r="E9" s="1" t="n"/>
+      <c r="F9" s="19" t="n"/>
+    </row>
+    <row r="10">
       <c r="A10" s="18" t="n"/>
-      <c r="B10" s="31" t="inlineStr">
-        <is>
-          <t>978-912-3377</t>
-        </is>
-      </c>
-      <c r="C10" s="33" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="D10" s="31" t="inlineStr">
-        <is>
-          <t>Jacky</t>
-        </is>
-      </c>
+      <c r="B10" s="31" t="n"/>
+      <c r="C10" s="34" t="n"/>
+      <c r="D10" s="31" t="n"/>
       <c r="E10" s="31" t="n"/>
-      <c r="F10" s="19" t="inlineStr">
-        <is>
-          <t>9789123377</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
+      <c r="F10" s="19" t="n"/>
     </row>
     <row customHeight="1" ht="14.7" r="11" thickBot="1">
       <c r="A11" s="18" t="n"/>
-      <c r="B11" s="31" t="inlineStr">
-        <is>
-          <t>817-308-7575</t>
-        </is>
-      </c>
-      <c r="C11" s="33" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="D11" s="31" t="inlineStr">
-        <is>
-          <t>Juia</t>
-        </is>
-      </c>
-      <c r="E11" s="31" t="inlineStr">
-        <is>
-          <t>Gwillim</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>8173087575</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
+      <c r="B11" s="24" t="n"/>
+      <c r="D11" s="6" t="n"/>
+      <c r="E11" s="6" t="n"/>
+      <c r="F11" s="19" t="n"/>
     </row>
     <row customHeight="1" ht="14.7" r="12" thickBot="1">
       <c r="A12" s="18" t="n"/>
-      <c r="B12" s="31" t="inlineStr">
-        <is>
-          <t>832-798-3317</t>
-        </is>
-      </c>
-      <c r="C12" s="33" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="D12" s="31" t="inlineStr">
-        <is>
-          <t>Kayla</t>
-        </is>
-      </c>
-      <c r="E12" s="31" t="inlineStr">
-        <is>
-          <t>Johnson</t>
-        </is>
-      </c>
-      <c r="F12" s="19" t="inlineStr">
-        <is>
-          <t>8327983317</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
+      <c r="B12" s="24" t="n"/>
+      <c r="D12" s="6" t="n"/>
+      <c r="E12" s="6" t="n"/>
+      <c r="F12" s="19" t="n"/>
     </row>
     <row customHeight="1" ht="14.7" r="13" thickBot="1">
       <c r="A13" s="18" t="n"/>
-      <c r="B13" s="31" t="inlineStr">
-        <is>
-          <t>213-245-4384</t>
-        </is>
-      </c>
-      <c r="C13" s="33" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="D13" s="31" t="inlineStr">
-        <is>
-          <t>Keala</t>
-        </is>
-      </c>
-      <c r="E13" s="31" t="inlineStr">
-        <is>
-          <t>Grasa</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2132454384</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
+      <c r="B13" s="24" t="n"/>
+      <c r="D13" s="6" t="n"/>
+      <c r="E13" s="6" t="n"/>
+      <c r="F13" s="19" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="18" t="n"/>
@@ -1101,78 +1012,70 @@
       <c r="E14" s="6" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="18" t="n"/>
-      <c r="B15" s="24" t="n"/>
-      <c r="D15" s="6" t="n"/>
-      <c r="E15" s="6" t="n"/>
+      <c r="B15" s="16" t="n"/>
+      <c r="D15" s="5" t="n"/>
+      <c r="E15" s="7" t="n"/>
+      <c r="F15" s="27" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="18" t="n"/>
-      <c r="B16" s="24" t="n"/>
-      <c r="D16" s="6" t="n"/>
-      <c r="E16" s="6" t="n"/>
+      <c r="B16" s="16" t="n"/>
+      <c r="D16" s="5" t="n"/>
+      <c r="E16" s="7" t="n"/>
+      <c r="F16" s="29" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="18" t="n"/>
-      <c r="B17" s="24" t="n"/>
-      <c r="D17" s="6" t="n"/>
+      <c r="B17" s="17" t="n"/>
+      <c r="D17" s="4" t="n"/>
       <c r="E17" s="6" t="n"/>
     </row>
     <row r="18">
       <c r="B18" s="17" t="n"/>
       <c r="D18" s="4" t="n"/>
       <c r="E18" s="6" t="n"/>
-      <c r="F18" s="28" t="n"/>
     </row>
     <row r="19">
-      <c r="B19" s="25" t="n"/>
-      <c r="D19" s="11" t="n"/>
-      <c r="E19" s="12" t="n"/>
+      <c r="B19" s="17" t="n"/>
+      <c r="D19" s="4" t="n"/>
+      <c r="E19" s="6" t="n"/>
     </row>
     <row r="20">
-      <c r="B20" s="16" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="7" t="n"/>
+      <c r="B20" s="17" t="n"/>
+      <c r="D20" s="4" t="n"/>
+      <c r="E20" s="6" t="n"/>
     </row>
     <row r="21">
-      <c r="B21" s="16" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="7" t="n"/>
+      <c r="B21" s="17" t="n"/>
+      <c r="D21" s="4" t="n"/>
+      <c r="E21" s="6" t="n"/>
     </row>
     <row r="22">
-      <c r="B22" s="16" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="7" t="n"/>
+      <c r="B22" s="26" t="n"/>
+      <c r="D22" s="14" t="n"/>
+      <c r="E22" s="15" t="n"/>
     </row>
     <row r="23">
-      <c r="B23" s="16" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="7" t="n"/>
+      <c r="B23" s="24" t="n"/>
+      <c r="D23" s="6" t="n"/>
+      <c r="E23" s="6" t="n"/>
     </row>
     <row r="24">
-      <c r="B24" s="26" t="n"/>
-      <c r="D24" s="14" t="n"/>
-      <c r="E24" s="15" t="n"/>
+      <c r="B24" s="24" t="n"/>
+      <c r="D24" s="6" t="n"/>
+      <c r="E24" s="6" t="n"/>
     </row>
     <row r="25">
-      <c r="B25" s="24" t="n"/>
-      <c r="D25" s="6" t="n"/>
-      <c r="E25" s="6" t="n"/>
+      <c r="B25" s="2" t="n"/>
+      <c r="D25" s="1" t="n"/>
+      <c r="E25" s="8" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="24" t="n"/>
-      <c r="D26" s="6" t="n"/>
-      <c r="E26" s="6" t="n"/>
+      <c r="E26" s="9" t="n"/>
     </row>
     <row r="27">
-      <c r="B27" s="24" t="n"/>
-      <c r="D27" s="6" t="n"/>
-      <c r="E27" s="6" t="n"/>
+      <c r="E27" s="9" t="n"/>
     </row>
     <row r="28">
-      <c r="B28" s="2" t="n"/>
-      <c r="D28" s="1" t="n"/>
-      <c r="E28" s="8" t="n"/>
+      <c r="E28" s="9" t="n"/>
     </row>
     <row r="29">
       <c r="E29" s="9" t="n"/>
@@ -1193,13 +1096,7 @@
       <c r="E34" s="9" t="n"/>
     </row>
     <row r="35">
-      <c r="E35" s="9" t="n"/>
-    </row>
-    <row r="36">
-      <c r="E36" s="9" t="n"/>
-    </row>
-    <row r="37">
-      <c r="E37" s="9" t="n"/>
+      <c r="E35" s="10" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/supporting_files/contacts_formatted.xlsx
+++ b/supporting_files/contacts_formatted.xlsx
@@ -31,7 +31,7 @@
       <sz val="10"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
@@ -50,8 +50,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE599"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC9DAF8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -252,34 +264,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -369,10 +353,10 @@
     <xf applyAlignment="1" borderId="0" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="18" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="19" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -684,10 +668,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -744,32 +728,32 @@
       <c r="A2" s="18" t="n"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>346-770-9506</t>
+          <t>832-585-2888</t>
         </is>
       </c>
       <c r="C2" s="33" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>Elizabeth</t>
+          <t>Caryl</t>
         </is>
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>Denny</t>
+          <t>Faulks</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3467709506</t>
+          <t>8325852888</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
     </row>
@@ -777,7 +761,7 @@
       <c r="A3" s="18" t="n"/>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>469-664-3775</t>
+          <t>832-696-5773</t>
         </is>
       </c>
       <c r="C3" s="33" t="inlineStr">
@@ -787,17 +771,17 @@
       </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t>Grace</t>
+          <t>Catherina</t>
         </is>
       </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
-          <t>Lee</t>
+          <t>Chowdhury</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4696643775</t>
+          <t>8326965773</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -810,32 +794,32 @@
       <c r="A4" s="18" t="n"/>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>469-307-0337</t>
+          <t>713-398-1164</t>
         </is>
       </c>
       <c r="C4" s="33" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
-          <t>Hannah</t>
+          <t>Catherine</t>
         </is>
       </c>
       <c r="E4" s="1" t="inlineStr">
         <is>
-          <t>Lee</t>
+          <t>Fang</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4693070337</t>
+          <t>7133981164</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
     </row>
@@ -843,7 +827,7 @@
       <c r="A5" s="18" t="n"/>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>979-264-0480</t>
+          <t>512-468-1921</t>
         </is>
       </c>
       <c r="C5" s="33" t="inlineStr">
@@ -853,17 +837,17 @@
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>Isabel</t>
+          <t>Caycay</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>Garcia</t>
+          <t>Dickerson</t>
         </is>
       </c>
       <c r="F5" s="19" t="inlineStr">
         <is>
-          <t>9792640480</t>
+          <t>5124681921</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -876,32 +860,32 @@
       <c r="A6" s="18" t="n"/>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>682-215-2411</t>
-        </is>
-      </c>
-      <c r="C6" s="33" t="inlineStr">
-        <is>
-          <t>F</t>
+          <t>512-660-1320</t>
+        </is>
+      </c>
+      <c r="C6" s="35" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>Jada</t>
+          <t>Charles</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>Palmer</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6822152411</t>
+          <t>5126601320</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
     </row>
@@ -909,94 +893,199 @@
       <c r="A7" s="18" t="n"/>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>281-761-4370</t>
-        </is>
-      </c>
-      <c r="C7" s="33" t="inlineStr">
-        <is>
-          <t>other</t>
+          <t>512-660-1320</t>
+        </is>
+      </c>
+      <c r="C7" s="35" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>Julie</t>
+          <t>Charles</t>
         </is>
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>Webb</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2817614370</t>
+          <t>5126601320</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>male</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="18" t="inlineStr">
-        <is>
-          <t>Jena Mrochek</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>4445556667</v>
+      <c r="A8" s="18" t="n"/>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>936-897-1462</t>
+        </is>
       </c>
       <c r="C8" s="35" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>Jena</t>
+          <t>Charlie</t>
         </is>
       </c>
       <c r="E8" s="1" t="inlineStr">
         <is>
-          <t>Mrochek</t>
+          <t>Le</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9368971462</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="18" t="n"/>
-      <c r="B9" s="1" t="n"/>
-      <c r="C9" s="35" t="n"/>
-      <c r="D9" s="1" t="n"/>
-      <c r="E9" s="1" t="n"/>
-      <c r="F9" s="19" t="n"/>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>281-881-1066</t>
+        </is>
+      </c>
+      <c r="C9" s="33" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D9" s="34" t="inlineStr">
+        <is>
+          <t>Chase</t>
+        </is>
+      </c>
+      <c r="E9" s="34" t="inlineStr">
+        <is>
+          <t>Berry</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2818811066</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="18" t="n"/>
-      <c r="B10" s="31" t="n"/>
-      <c r="C10" s="34" t="n"/>
-      <c r="D10" s="31" t="n"/>
-      <c r="E10" s="31" t="n"/>
-      <c r="F10" s="19" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.7" r="11" thickBot="1">
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>713-962-4632</t>
+        </is>
+      </c>
+      <c r="C10" s="33" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D10" s="1" t="inlineStr">
+        <is>
+          <t>Chloe</t>
+        </is>
+      </c>
+      <c r="E10" s="1" t="inlineStr">
+        <is>
+          <t>Matinez</t>
+        </is>
+      </c>
+      <c r="F10" s="19" t="inlineStr">
+        <is>
+          <t>7139624632</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="18" t="n"/>
-      <c r="B11" s="24" t="n"/>
-      <c r="D11" s="6" t="n"/>
-      <c r="E11" s="6" t="n"/>
-      <c r="F11" s="19" t="n"/>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>713-933-5315</t>
+        </is>
+      </c>
+      <c r="C11" s="35" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D11" s="1" t="inlineStr">
+        <is>
+          <t>Chris</t>
+        </is>
+      </c>
+      <c r="E11" s="1" t="inlineStr">
+        <is>
+          <t>Lee</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7139335315</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="14.7" r="12" thickBot="1">
       <c r="A12" s="18" t="n"/>
-      <c r="B12" s="24" t="n"/>
-      <c r="D12" s="6" t="n"/>
-      <c r="E12" s="6" t="n"/>
-      <c r="F12" s="19" t="n"/>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>469-999-6464</t>
+        </is>
+      </c>
+      <c r="C12" s="35" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D12" s="1" t="inlineStr">
+        <is>
+          <t>Chris</t>
+        </is>
+      </c>
+      <c r="E12" s="1" t="inlineStr">
+        <is>
+          <t>Mathew</t>
+        </is>
+      </c>
+      <c r="F12" s="19" t="inlineStr">
+        <is>
+          <t>4699996464</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="14.7" r="13" thickBot="1">
       <c r="A13" s="18" t="n"/>
@@ -1010,28 +1099,32 @@
       <c r="B14" s="24" t="n"/>
       <c r="D14" s="6" t="n"/>
       <c r="E14" s="6" t="n"/>
+      <c r="F14" s="19" t="n"/>
     </row>
     <row r="15">
-      <c r="B15" s="16" t="n"/>
-      <c r="D15" s="5" t="n"/>
-      <c r="E15" s="7" t="n"/>
-      <c r="F15" s="27" t="n"/>
+      <c r="A15" s="18" t="n"/>
+      <c r="B15" s="24" t="n"/>
+      <c r="D15" s="6" t="n"/>
+      <c r="E15" s="6" t="n"/>
+      <c r="F15" s="19" t="n"/>
     </row>
     <row r="16">
-      <c r="B16" s="16" t="n"/>
-      <c r="D16" s="5" t="n"/>
-      <c r="E16" s="7" t="n"/>
-      <c r="F16" s="29" t="n"/>
+      <c r="A16" s="18" t="n"/>
+      <c r="B16" s="24" t="n"/>
+      <c r="D16" s="6" t="n"/>
+      <c r="E16" s="6" t="n"/>
     </row>
     <row r="17">
-      <c r="B17" s="17" t="n"/>
-      <c r="D17" s="4" t="n"/>
-      <c r="E17" s="6" t="n"/>
+      <c r="B17" s="16" t="n"/>
+      <c r="D17" s="5" t="n"/>
+      <c r="E17" s="7" t="n"/>
+      <c r="F17" s="27" t="n"/>
     </row>
     <row r="18">
-      <c r="B18" s="17" t="n"/>
-      <c r="D18" s="4" t="n"/>
-      <c r="E18" s="6" t="n"/>
+      <c r="B18" s="16" t="n"/>
+      <c r="D18" s="5" t="n"/>
+      <c r="E18" s="7" t="n"/>
+      <c r="F18" s="29" t="n"/>
     </row>
     <row r="19">
       <c r="B19" s="17" t="n"/>
@@ -1049,30 +1142,34 @@
       <c r="E21" s="6" t="n"/>
     </row>
     <row r="22">
-      <c r="B22" s="26" t="n"/>
-      <c r="D22" s="14" t="n"/>
-      <c r="E22" s="15" t="n"/>
+      <c r="B22" s="17" t="n"/>
+      <c r="D22" s="4" t="n"/>
+      <c r="E22" s="6" t="n"/>
     </row>
     <row r="23">
-      <c r="B23" s="24" t="n"/>
-      <c r="D23" s="6" t="n"/>
+      <c r="B23" s="17" t="n"/>
+      <c r="D23" s="4" t="n"/>
       <c r="E23" s="6" t="n"/>
     </row>
     <row r="24">
-      <c r="B24" s="24" t="n"/>
-      <c r="D24" s="6" t="n"/>
-      <c r="E24" s="6" t="n"/>
+      <c r="B24" s="26" t="n"/>
+      <c r="D24" s="14" t="n"/>
+      <c r="E24" s="15" t="n"/>
     </row>
     <row r="25">
-      <c r="B25" s="2" t="n"/>
-      <c r="D25" s="1" t="n"/>
-      <c r="E25" s="8" t="n"/>
+      <c r="B25" s="24" t="n"/>
+      <c r="D25" s="6" t="n"/>
+      <c r="E25" s="6" t="n"/>
     </row>
     <row r="26">
-      <c r="E26" s="9" t="n"/>
+      <c r="B26" s="24" t="n"/>
+      <c r="D26" s="6" t="n"/>
+      <c r="E26" s="6" t="n"/>
     </row>
     <row r="27">
-      <c r="E27" s="9" t="n"/>
+      <c r="B27" s="2" t="n"/>
+      <c r="D27" s="1" t="n"/>
+      <c r="E27" s="8" t="n"/>
     </row>
     <row r="28">
       <c r="E28" s="9" t="n"/>
@@ -1096,7 +1193,13 @@
       <c r="E34" s="9" t="n"/>
     </row>
     <row r="35">
-      <c r="E35" s="10" t="n"/>
+      <c r="E35" s="9" t="n"/>
+    </row>
+    <row r="36">
+      <c r="E36" s="9" t="n"/>
+    </row>
+    <row r="37">
+      <c r="E37" s="10" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
